--- a/Data/RemapDrafts/NingguangRemapDraft.xlsx
+++ b/Data/RemapDrafts/NingguangRemapDraft.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer\Games\Genshin\Repos\Repos\Fix-Raiden-Boss-Fork\Tools\Linker\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer\Games\Genshin\Repos\Repos\Fix-Raiden-Boss\Data\RemapDrafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2767B122-1DB0-42C3-9A2B-F7FB4D710D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5914FD6B-6259-4313-B72A-DF9EDA172B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{8E76B426-E694-4A38-8276-66FB6739700D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{8E76B426-E694-4A38-8276-66FB6739700D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V4.8 - Ningguang to Orchid" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -448,19 +448,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C02F1F-4996-4A24-94A0-7DAB7DB3F42E}">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -546,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -562,7 +562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -570,7 +570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -594,7 +594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -610,7 +610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -618,7 +618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -626,7 +626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -634,7 +634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -642,7 +642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -650,7 +650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -658,7 +658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -677,7 +677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -685,7 +685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -693,7 +693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -701,7 +701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -712,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -723,7 +723,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -731,7 +731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -739,7 +739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -747,7 +747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -755,7 +755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -763,7 +763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -771,7 +771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -779,7 +779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -795,7 +795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -803,7 +803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -811,7 +811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -819,7 +819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -827,7 +827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -835,7 +835,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -843,7 +843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -851,7 +851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -859,7 +859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -867,7 +867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -881,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -916,7 +916,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -924,7 +924,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -932,7 +932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -940,7 +940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -948,7 +948,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -956,7 +956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -964,7 +964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -972,7 +972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -980,7 +980,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -988,7 +988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -996,7 +996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>

--- a/Data/RemapDrafts/NingguangRemapDraft.xlsx
+++ b/Data/RemapDrafts/NingguangRemapDraft.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer\Games\Genshin\Repos\Repos\Fix-Raiden-Boss\Data\RemapDrafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5914FD6B-6259-4313-B72A-DF9EDA172B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FC8A31-A82C-4A21-BBFF-100D0F61B973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{8E76B426-E694-4A38-8276-66FB6739700D}"/>
   </bookViews>
   <sheets>
-    <sheet name="V4.8 - Ningguang to Orchid" sheetId="1" r:id="rId1"/>
+    <sheet name="V4.0 - Ningguang to Orchid" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V4.0 - Ningguang to Orchid'!$A$1:$D$120</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +119,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -448,9 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C02F1F-4996-4A24-94A0-7DAB7DB3F42E}">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1445,6 +1457,10 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D120" xr:uid="{D6C02F1F-4996-4A24-94A0-7DAB7DB3F42E}"/>
+  <conditionalFormatting sqref="B2:B120">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>